--- a/Manual Testing/Project/T.xlsx
+++ b/Manual Testing/Project/T.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesing\Manual Testing\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD47B4-A825-49F5-89D8-A3C893DB26B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C7C379-559F-4B15-B825-968AD706F5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Test Scenario Id</t>
   </si>
@@ -206,6 +206,19 @@
   </si>
   <si>
     <t>Create Account</t>
+  </si>
+  <si>
+    <t>Create account without filling data</t>
+  </si>
+  <si>
+    <t>1.Internet
+2.URL in working condition.</t>
+  </si>
+  <si>
+    <t>1. Open browser.
+2. Search URL
+3.click on signup
+2.Click on create account.</t>
   </si>
 </sst>
 </file>
@@ -576,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -808,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B729F14-0544-4E6A-A11B-ED3A671A7FD6}">
   <dimension ref="A3:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,16 +871,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>

--- a/Manual Testing/Project/T.xlsx
+++ b/Manual Testing/Project/T.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesing\Manual Testing\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C7C379-559F-4B15-B825-968AD706F5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DFD444-F788-47CE-892C-DBA801D2897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
     <sheet name="Create Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Location, Language, currency" sheetId="3" r:id="rId3"/>
+    <sheet name="My profile" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Test Scenario Id</t>
   </si>
@@ -179,27 +181,6 @@
   </si>
   <si>
     <t>TC_06</t>
-  </si>
-  <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>TC_13</t>
   </si>
   <si>
     <t>Test case name</t>
@@ -219,6 +200,97 @@
 2. Search URL
 3.click on signup
 2.Click on create account.</t>
+  </si>
+  <si>
+    <t>Mobile number : null</t>
+  </si>
+  <si>
+    <t>User is not able create account without data</t>
+  </si>
+  <si>
+    <t>As per expected.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Create account with incorrect mobile number.</t>
+  </si>
+  <si>
+    <t>Mobile number : 52525252</t>
+  </si>
+  <si>
+    <t>Error msg shown to user that ''please enter valid mobile number''</t>
+  </si>
+  <si>
+    <t>Create account with correct mobile number</t>
+  </si>
+  <si>
+    <t>Mobile number :9114141452</t>
+  </si>
+  <si>
+    <t>1.User is able to create account.
+2.User get confirmation msg that your account is created successfully.</t>
+  </si>
+  <si>
+    <t>Location test</t>
+  </si>
+  <si>
+    <t>Try to select a country.</t>
+  </si>
+  <si>
+    <t>1. Open browser.
+2. Search URL.
+3.click on login.
+4.Click on location</t>
+  </si>
+  <si>
+    <t>1.Country : India</t>
+  </si>
+  <si>
+    <t>1.User is able to select a country.
+2. currency and language is changed as per country.</t>
+  </si>
+  <si>
+    <t>Try to select country and change language.</t>
+  </si>
+  <si>
+    <t>Country : India
+Language : hindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User is able to select a country.
+2.Applications </t>
+  </si>
+  <si>
+    <t>Manage profile test</t>
+  </si>
+  <si>
+    <t>Try to edit profile without any data.</t>
+  </si>
+  <si>
+    <t>1. Open browser.
+2. Search URL.
+3.click on login.
+4.Click on my profile.</t>
+  </si>
+  <si>
+    <t>1. Name : null
+2. Birth date : null
+3. Gender : null
+4.Martial status : null
+5.Your address : null
+6. Pincode : null
+State : gujarat</t>
+  </si>
+  <si>
+    <t>User should get error msg that field should be filled with details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As per expected. </t>
+  </si>
+  <si>
+    <t>Try to edit profile with incorrect pincode.</t>
   </si>
 </sst>
 </file>
@@ -298,14 +370,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -819,10 +897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B729F14-0544-4E6A-A11B-ED3A671A7FD6}">
-  <dimension ref="A3:J16"/>
+  <dimension ref="A3:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +922,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
@@ -876,29 +954,308 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47986695-77F6-45B0-9140-A6485A1CCF23}">
+  <dimension ref="A3:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0952A3BF-4DF3-4492-8B1A-A738097814B4}">
+  <dimension ref="A3:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -963,107 +1320,8 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>